--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1669646.032744331</v>
+        <v>-1672346.90146173</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20.71945309352762</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>113.9041055112783</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.1505829281241</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.21706323793379</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>216.2055364146071</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>17.62122496199378</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.7952157730616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>71.2719042843178</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>60.2516337911661</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>137.1885407052894</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.36610313819131</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.6168578776739</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.2440807643119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977127</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.574028979552</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>80.07147829118256</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>150.672680124696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>75.2135622723823</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644399061</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.713578732508</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.713578732508</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,13 +4331,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2447.284676368561</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2447.284676368561</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005928</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078021</v>
+        <v>474.5524996903674</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665686</v>
+        <v>324.4358602780317</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>324.4358602780317</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585382</v>
+        <v>324.4358602780317</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936607</v>
+        <v>156.4493955863103</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936607</v>
+        <v>156.4493955863103</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936607</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2040.148693270334</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1785.464205064447</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1785.464205064447</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X4" t="n">
-        <v>1758.982323005928</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y4" t="n">
-        <v>1758.982323005928</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1224.085859695932</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="C5" t="n">
-        <v>1224.085859695932</v>
+        <v>1096.326872355147</v>
       </c>
       <c r="D5" t="n">
-        <v>865.820161089182</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>480.0319084909377</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>69.04600370133016</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
         <v>51.24678656800311</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2000.825031735866</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>2000.825031735866</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.685699760054</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4650,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507739</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.0150268210028</v>
+        <v>716.897187706548</v>
       </c>
       <c r="C7" t="n">
-        <v>305.0150268210028</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210028</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323095</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>896.0145465323095</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X7" t="n">
-        <v>668.0249956342922</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y7" t="n">
-        <v>447.232416490762</v>
+        <v>898.5456525367878</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.0229723523612</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C8" t="n">
-        <v>893.0229723523612</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>534.7572737456107</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>534.7572737456107</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>527.8117729964073</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1070227206961</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>1692.716121379996</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.622812416483</v>
+        <v>1302.576789404184</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>813.841548125043</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>432.2782146565806</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>284.3651210741875</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>137.4751735762772</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1223.4795638533</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1223.4795638533</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>995.4900129552827</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>995.4900129552827</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,7 +5118,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683274</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377092</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253735</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,16 +5212,16 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487566</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683274</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684976</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852254</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,13 +6604,13 @@
         <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,7 +6838,7 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942654</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,13 +7114,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7312,37 +7312,37 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,25 +7831,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374743</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>186.4490126143846</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6.454437538929312</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.25823202432741</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>59.9312387033848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>87.13472298519811</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>137.1411446171837</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>199.4925921511034</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.00274033431589</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.8157004124976</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.257951202385328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.45266000108629</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>35.40333084624518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>218.1071577446381</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-5.562217481057792e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045148</v>
+        <v>99467.00901045145</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26320,7 +26320,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.9899535008</v>
       </c>
       <c r="F2" t="n">
         <v>121071.9899535009</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>19427.71799363178</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41769.40924959291</v>
+        <v>41769.40924959294</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707394</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707387</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707366</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707372</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707414</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707425</v>
       </c>
       <c r="K4" t="n">
         <v>14888.28375980083</v>
@@ -26448,13 +26448,13 @@
         <v>14888.28375980083</v>
       </c>
       <c r="M4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
         <v>14888.28375980083</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149991.956254906</v>
+        <v>-1150386.777196059</v>
       </c>
       <c r="C6" t="n">
         <v>-101691.2337918271</v>
       </c>
       <c r="D6" t="n">
-        <v>-101691.2337918271</v>
+        <v>-101691.2337918272</v>
       </c>
       <c r="E6" t="n">
-        <v>-494433.4059916593</v>
+        <v>-494468.1439170951</v>
       </c>
       <c r="F6" t="n">
-        <v>13052.03563288643</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="G6" t="n">
-        <v>13052.03563288647</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="H6" t="n">
-        <v>13052.03563288643</v>
+        <v>13017.29770745072</v>
       </c>
       <c r="I6" t="n">
-        <v>13052.03563288639</v>
+        <v>13017.29770745075</v>
       </c>
       <c r="J6" t="n">
-        <v>-154553.1421770962</v>
+        <v>-154587.8801025318</v>
       </c>
       <c r="K6" t="n">
         <v>-14323.85212770563</v>
@@ -26552,16 +26552,16 @@
         <v>5103.865865926156</v>
       </c>
       <c r="M6" t="n">
-        <v>-127503.4278630005</v>
+        <v>-127503.4278630004</v>
       </c>
       <c r="N6" t="n">
         <v>5103.865865926273</v>
       </c>
       <c r="O6" t="n">
-        <v>5103.865865926316</v>
+        <v>5103.865865926287</v>
       </c>
       <c r="P6" t="n">
-        <v>-14323.85212770553</v>
+        <v>-14323.8521277055</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.0323498237705</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>213.8838295772073</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0.6460122757764992</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>138.4775052060758</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>393.9264778109602</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.03676440887571</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>95.97491681431003</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>240.7669187712393</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>232.5425599731797</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>19.43049206570926</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,7 +28068,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>139.5207854461542</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28284,13 +28284,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>302.9675447508054</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>504.7812948344587</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>473.8581708471803</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,10 +33433,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>271.5293621272322</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,25 +35018,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>484.1293732522348</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>341.8791195350524</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>263.9377611478598</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998974</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287871</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>362.6472609124403</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>342.516458763847</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
